--- a/ClueGame/ClueBoard.xlsx
+++ b/ClueGame/ClueBoard.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6CC18E00-2F6A-42E9-908A-9966081B4010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ClueGame/ClueBoard.xlsx
+++ b/ClueGame/ClueBoard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6CC18E00-2F6A-42E9-908A-9966081B4010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{880A3A59-BD18-42AA-9716-72EF1BC276D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21630" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
@@ -267,29 +267,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -583,14 +572,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -599,10 +586,10 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -614,7 +601,7 @@
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -623,10 +610,10 @@
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -800,7 +787,7 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -879,7 +866,7 @@
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -894,7 +881,7 @@
       <c r="H6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -903,7 +890,7 @@
       <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -935,10 +922,10 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -974,7 +961,7 @@
       <c r="P7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R7">
@@ -991,7 +978,7 @@
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1000,7 +987,7 @@
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1038,13 +1025,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1083,10 +1070,10 @@
       <c r="O9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="15" t="s">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9">
@@ -1094,7 +1081,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1150,7 +1137,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1209,10 +1196,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1268,16 +1255,16 @@
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1324,7 +1311,7 @@
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1374,13 +1361,13 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1430,13 +1417,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1454,7 +1441,7 @@
       <c r="H16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -1519,10 +1506,10 @@
       <c r="K17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -1554,7 +1541,7 @@
       <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1643,7 +1630,7 @@
       <c r="O19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q19" s="4" t="s">
@@ -1787,7 +1774,7 @@
       <c r="G22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -1840,7 +1827,7 @@
       <c r="F23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1852,7 +1839,7 @@
       <c r="J23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -1958,7 +1945,7 @@
       <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -1976,7 +1963,7 @@
       <c r="N25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="6" t="s">
@@ -2043,55 +2030,55 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="12"/>
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="13"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="16"/>
       <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="18"/>
       <c r="B36" t="s">
         <v>29</v>
       </c>
